--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731D9B8-DC12-4ECB-9958-5DA6BF41F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F7012-9F71-4132-92D9-FB69C92EB9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>Création et reformatage du formulaire de création de requête</t>
+  </si>
+  <si>
+    <t>Rencontre d'équipe</t>
+  </si>
+  <si>
+    <t>Résoudre les conlfits de fusion</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1808,7 @@
   <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,7 +1903,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -1945,16 +1951,28 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="53">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F7012-9F71-4132-92D9-FB69C92EB9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B8A4F-A985-48BE-B7F9-4D90EB852D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Résoudre les conlfits de fusion</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>Réolution d'un problème de système</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1814,7 @@
   <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,7 +1909,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -1981,10 +1987,16 @@
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B8A4F-A985-48BE-B7F9-4D90EB852D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431BE66C-A63A-488B-BBD7-453802979BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Réolution d'un problème de système</t>
+  </si>
+  <si>
+    <t>Apprentissage React</t>
+  </si>
+  <si>
+    <t>Formulaire de modification de dossier</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,7 +1915,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -1999,16 +2005,28 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="53">
+        <v>1</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+      <c r="A18" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52"/>
+      <c r="C18" s="53">
+        <v>3</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431BE66C-A63A-488B-BBD7-453802979BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF8292-9677-46FA-91C8-75E79B45BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Formulaire de modification de dossier</t>
+  </si>
+  <si>
+    <t>09/02/2023</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1823,7 @@
   <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,7 +1918,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2035,10 +2038,16 @@
       <c r="D19" s="52"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="53">
+        <v>3</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF8292-9677-46FA-91C8-75E79B45BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA93005-DA0F-4A89-BAE3-C29DA50B42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>09/02/2023</t>
+  </si>
+  <si>
+    <t>Nettoyage et debug du formulaire de dossier</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1826,7 @@
   <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2043,17 +2046,23 @@
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="52"/>
+      <c r="C21" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA93005-DA0F-4A89-BAE3-C29DA50B42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E24B34D-FB40-4B97-B96A-4D1D5E39A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>Nettoyage et debug du formulaire de dossier</t>
+  </si>
+  <si>
+    <t>12/02/2023</t>
+  </si>
+  <si>
+    <t>Création de la documentation pour l'utilisateur</t>
+  </si>
+  <si>
+    <t>Fix d'un bug dans la création de dossier</t>
+  </si>
+  <si>
+    <t>Recréation de la documentation a cause d'une erreur</t>
   </si>
 </sst>
 </file>
@@ -1825,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1933,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2071,22 +2083,40 @@
       <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="51" t="s">
+        <v>93</v>
+      </c>
       <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="51" t="s">
+        <v>93</v>
+      </c>
       <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52"/>
+      <c r="C24" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="51" t="s">
+        <v>93</v>
+      </c>
       <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="52"/>
+      <c r="C25" s="53">
+        <v>2</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E24B34D-FB40-4B97-B96A-4D1D5E39A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CBD9E-78C2-41C8-A327-D392AE94C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="98">
   <si>
     <t>Fiche d'évaluation du travail d'équipe</t>
   </si>
@@ -379,23 +379,6 @@
     <t>Turgeon</t>
   </si>
   <si>
-    <t>Malgré le fait que j'ai réussi a complété l'API dans de bons temps, celui semble encore avoir des des erreurs (donc le travail n'est pas d'une qualité parfaite)
-Mais je n'ai pas réussi à compléter le form pour créer une requête dans le temps prévu</t>
-  </si>
-  <si>
-    <t>Louis faisait l'API avec moi, donc puisque l'API a été fini dans les temps, mais avec certains bogues, j'ai descendu le travail de qualité au même niveau que je l'ai mis pour moi.
-Il a aussi moins parlé lorsque l'on a fait le plan de l'application donc j'ai baissé de 1 point les sections lier a s'exprimer</t>
-  </si>
-  <si>
-    <t>Cette semaine Jean-Philippe a bien accompli sont rôle de chef  d'équipe, il a écouté les propositions de tous ceux qui on partager leurs pensés et n'avais rien a reproché</t>
-  </si>
-  <si>
-    <t>Malheureusement, Karl a été bloqué à faire fonctionner un  bouton pendant longtemps, il n'a donc pas respecté l'échéance. Et son travail s'arrête à un bouton donc je ne sais pas si c'est un travail de qualité.</t>
-  </si>
-  <si>
-    <t>Souvent préfère faire comme il le pense, plutôt que d'écouter  les autres, mais honnêtement je n'ai aucun reproche a lui faire</t>
-  </si>
-  <si>
     <t>06/02/2023</t>
   </si>
   <si>
@@ -435,10 +418,28 @@
     <t>Création de la documentation pour l'utilisateur</t>
   </si>
   <si>
-    <t>Fix d'un bug dans la création de dossier</t>
-  </si>
-  <si>
     <t>Recréation de la documentation a cause d'une erreur</t>
+  </si>
+  <si>
+    <t>Bug de base de donnée et de migration</t>
+  </si>
+  <si>
+    <t>Cette fois je suis beaucoup plus fier du résultat que j'ai produit. Je crois cependant que j'ai pris trop de temps a faire certaine tâche</t>
+  </si>
+  <si>
+    <t>La seul raison que j'ai pas mis 5 pour la ligne "a aidé l'équipe à prendre des décision" c'est parce qu'il n'a pas parlé tant que ça quand on parlais de ce a quoi on voulait qu'un module ressemble</t>
+  </si>
+  <si>
+    <t>Jean-philippe a pris un des développement qui me causait des problèmes et s'en est occupé avec brio, cela m'a permit de terminer d'autre tâche a la place de rester bloqué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl a bien travailler cette semaine. Il a régler beaucoup  de problèmes que l'on avait dans l'API </t>
+  </si>
+  <si>
+    <t>Je n'ai aucune reproche a Victor, il a aidé Karl a régler les problèmes d'API, et a bien travaillé sur l'application</t>
+  </si>
+  <si>
+    <t>Fix de la création de dossier, qui était brisé a cause de la modification</t>
   </si>
 </sst>
 </file>
@@ -1837,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,13 +1916,11 @@
       <c r="C8" s="56"/>
       <c r="D8" s="38" t="str">
         <f>_xlfn.CONCAT("Évaluateur = ",Évaluateur!F14," ",Évaluateur!D30,CHAR(10),'Coéquipier 1'!D9:I9," ",'Coéquipier 1'!D10:I10," = ",'Coéquipier 1'!F11:I25," ",'Coéquipier 1'!D27:I27,CHAR(10),'Coéquipier 2'!D9:I9," ",'Coéquipier 2'!D10:I10," = ",'Coéquipier 2'!F11:I25,CHAR(10),'Coéquipier 3'!D9:I9," ",'Coéquipier 3'!D10:I10," = ",'Coéquipier 3'!F11:I25,CHAR(10),'Coéquipier 4'!D9:I9," ",'Coéquipier 4'!D10:I10," = ",'Coéquipier 4'!F11:I25,CHAR(10),'Coéquipier 5'!D9:I9," ",'Coéquipier 5'!D10:I10," = ",'Coéquipier 5'!F11:I25)</f>
-        <v>Évaluateur = 70 Malgré le fait que j'ai réussi a complété l'API dans de bons temps, celui semble encore avoir des des erreurs (donc le travail n'est pas d'une qualité parfaite)
-Mais je n'ai pas réussi à compléter le form pour créer une requête dans le temps prévu
-Louis Garceau = 70 Louis faisait l'API avec moi, donc puisque l'API a été fini dans les temps, mais avec certains bogues, j'ai descendu le travail de qualité au même niveau que je l'ai mis pour moi.
-Il a aussi moins parlé lorsque l'on a fait le plan de l'application donc j'ai baissé de 1 point les sections lier a s'exprimer
+        <v>Évaluateur = 73 Cette fois je suis beaucoup plus fier du résultat que j'ai produit. Je crois cependant que j'ai pris trop de temps a faire certaine tâche
+Louis Garceau = 73 La seul raison que j'ai pas mis 5 pour la ligne "a aidé l'équipe à prendre des décision" c'est parce qu'il n'a pas parlé tant que ça quand on parlais de ce a quoi on voulait qu'un module ressemble
 Jean-Philippe Belval = 74
-Karl Mainville = 71
-Victor Turgeon = 73
+Karl Mainville = 74
+Victor Turgeon = 74
 Coéquipier 5 = à évaluer</v>
       </c>
       <c r="E8" s="11"/>
@@ -1933,7 +1932,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -1958,50 +1957,50 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="50">
         <v>1</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="53">
         <v>2</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="53">
         <v>1</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="53">
         <v>1.5</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,38 +2011,38 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="53">
         <v>1.5</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B17" s="52"/>
       <c r="C17" s="53">
         <v>1</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="53">
         <v>3</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,26 +2053,26 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="53">
         <v>4</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="53">
         <v>1.5</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2084,45 +2083,51 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="53">
         <v>2.5</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53">
         <v>2</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="52"/>
+      <c r="D26" s="52" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
@@ -4794,8 +4799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:I30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,7 +5012,7 @@
       </c>
       <c r="F14" s="69">
         <f>IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
@@ -5059,11 +5064,11 @@
         <v>23</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="13">
         <f>VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
@@ -5230,11 +5235,11 @@
         <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="13">
         <f>VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="72"/>
       <c r="G26" s="73"/>
@@ -5299,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E30" s="65"/>
       <c r="F30" s="65"/>
@@ -5417,7 +5422,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5579,7 +5584,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -5650,11 +5655,11 @@
         <v>35</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="13">
         <f>VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="83"/>
       <c r="G15" s="84"/>
@@ -5802,11 +5807,11 @@
         <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13">
         <f>VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="84"/>
@@ -5871,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -5986,8 +5991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6441,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -6557,7 +6562,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6719,7 +6724,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -6923,11 +6928,11 @@
         <v>42</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" s="13">
         <f>VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="83"/>
       <c r="G22" s="84"/>
@@ -6942,11 +6947,11 @@
         <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13">
         <f>VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="84"/>
@@ -7011,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>
@@ -7126,8 +7131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:I27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7289,7 +7294,7 @@
       </c>
       <c r="F11" s="80">
         <f>IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
@@ -7474,11 +7479,11 @@
         <v>41</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="13">
         <f>VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="84"/>
@@ -7581,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="65"/>

--- a/FichesTemps/MaximeAubin3.xlsx
+++ b/FichesTemps/MaximeAubin3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CBD9E-78C2-41C8-A327-D392AE94C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEF1E4F-45EF-44B7-B985-360B2F296AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bsnEa0N1OcI6znPoPEcq3AHEi57LtmD/hoPfLk9LAHbO8ZgF/KxDU64xoRN551lSOgXhKiKNTKiOVsg9sOO7CQ==" workbookSaltValue="Arsw55Oy1Kl5wQ7vU+yWcQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B1E992-A4D6-4269-AA92-453ABD10AC9B}">
   <dimension ref="A1:F466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C9" s="47">
         <f>SUM(C11:C466)</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>64</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="53">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>85</v>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>87</v>
